--- a/Data/Input/PaymentTransactionTypes - Both.xlsx
+++ b/Data/Input/PaymentTransactionTypes - Both.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Client Projects\eShopWorld\Processes\VB\ESWNikeDailyRefunds\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EBE4FF-48F8-4388-A346-F890E41525D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBA8D30-BF89-4845-BD36-43A3E97A33FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28845" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payment Types" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="51">
   <si>
     <t>eSW Return Refund</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>M~=IF(OR(IFERROR(C{0}=VLOOKUP(C{0},donotprocess!$A:$A,1,0),"False"),IFERROR(C{0}=VLOOKUP(C{0},'Email Refunds'!$E:$E,1,0),"False"))=TRUE,"bank details changed","-")¶N~=IFERROR(VLOOKUP(TRIM(C{0}),TRIM(Fraud!C:G),5,FALSE),"-")</t>
+  </si>
+  <si>
+    <t>Columns To Remove From Filtration</t>
+  </si>
+  <si>
+    <t>Column1,Authorisation,Processing,Status,Column2,FRAUD Check,Do not process,MR-Email,MR-Fin,Column3,Comments,Refund Date,Column4</t>
+  </si>
+  <si>
+    <t>Column1,Authorisation,Processing,Status,Column2,Column3,Manual refunded Yes/No,refunded by Fraud team?,Return Credit Memo,Column4,Refunded Yes-No,Comment,Refund Date</t>
+  </si>
+  <si>
+    <t>Authorisation,Processing,Status,Column1,Column2,Manual refund,Fraud,Column3,Refund Date</t>
   </si>
 </sst>
 </file>
@@ -508,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +537,7 @@
     <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -547,33 +559,39 @@
       <c r="G1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -593,10 +611,13 @@
       <c r="G3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -615,6 +636,87 @@
       </c>
       <c r="G4" t="s">
         <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -627,7 +729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D0C3AA-5529-4D71-AAA7-A99999E9619A}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -754,18 +856,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3A7D5D-58F6-4694-9A38-5139D815B897}">
-  <dimension ref="A2:G13"/>
+  <dimension ref="A2:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection activeCell="A8" sqref="A8:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>38</v>
       </c>
@@ -773,7 +876,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
@@ -781,7 +884,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -789,7 +892,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -797,7 +900,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
@@ -805,7 +908,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -827,8 +935,11 @@
       <c r="G8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -850,8 +961,11 @@
       <c r="G9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -873,8 +987,11 @@
       <c r="G10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -896,8 +1013,11 @@
       <c r="G11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -919,8 +1039,11 @@
       <c r="G12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -941,6 +1064,9 @@
       </c>
       <c r="G13" t="s">
         <v>31</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
